--- a/excel/collective/zestawy_dla_uczniow/zestaw_046.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_046.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="291">
   <si>
     <t>ZESTAW ZADAŃ NR 46 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Oliwia Malinowska</t>
-  </si>
-  <si>
-    <t>Adam Dąbrowski</t>
-  </si>
-  <si>
-    <t>Szymon Kowalczyk</t>
-  </si>
-  <si>
-    <t>Hanna Wilk</t>
-  </si>
-  <si>
-    <t>Oliwia Kubiak</t>
+    <t>Filip Kamiński</t>
+  </si>
+  <si>
+    <t>Anna Piekarska</t>
+  </si>
+  <si>
+    <t>Antoni Kozłowski</t>
+  </si>
+  <si>
+    <t>Natalia Kubiak</t>
+  </si>
+  <si>
+    <t>Jakub Lewandowski</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,40 +160,40 @@
     <t>Razem (zł)</t>
   </si>
   <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>16,30</t>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>2,30</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>6,40</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>1,20</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>3,50</t>
   </si>
   <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>5,00</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>8,00</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>11,80</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>1,00</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>2,50</t>
+    <t>5,50</t>
+  </si>
+  <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>1,80</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>27,39</t>
+    <t>8,22</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>27,01</t>
+    <t>2,29</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>4,53</t>
+    <t>6,62</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>3,66</t>
+    <t>22,21</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>13,69</t>
+    <t>10,13</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +253,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>4,48</t>
-  </si>
-  <si>
-    <t>1,34</t>
-  </si>
-  <si>
-    <t>25,94</t>
-  </si>
-  <si>
-    <t>19,78</t>
-  </si>
-  <si>
-    <t>26,05</t>
+    <t>22,02</t>
+  </si>
+  <si>
+    <t>12,51</t>
+  </si>
+  <si>
+    <t>25,32</t>
+  </si>
+  <si>
+    <t>24,08</t>
+  </si>
+  <si>
+    <t>3,06</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +274,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>4,21</t>
-  </si>
-  <si>
-    <t>13,93</t>
-  </si>
-  <si>
-    <t>11,54</t>
-  </si>
-  <si>
-    <t>13,04</t>
-  </si>
-  <si>
-    <t>30,33</t>
+    <t>16,32</t>
+  </si>
+  <si>
+    <t>29,79</t>
+  </si>
+  <si>
+    <t>15,39</t>
+  </si>
+  <si>
+    <t>17,53</t>
+  </si>
+  <si>
+    <t>13,81</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,34 +340,43 @@
     <t>Czy pasek?</t>
   </si>
   <si>
+    <t>Zuzanna</t>
+  </si>
+  <si>
+    <t>Zawadzka</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Wilk</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Wójcik</t>
+  </si>
+  <si>
+    <t>Mikołaj</t>
+  </si>
+  <si>
+    <t>Jankowski</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Dąbrowski</t>
+  </si>
+  <si>
     <t>Aleksander</t>
   </si>
   <si>
-    <t>Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Jakub</t>
-  </si>
-  <si>
-    <t>Wójcik</t>
-  </si>
-  <si>
-    <t>Filip</t>
-  </si>
-  <si>
-    <t>Wojciechowski</t>
-  </si>
-  <si>
-    <t>Kacper</t>
-  </si>
-  <si>
-    <t>Kowalczyk</t>
-  </si>
-  <si>
-    <t>Emilia</t>
-  </si>
-  <si>
-    <t>Rogalska</t>
+    <t>Zieliński</t>
+  </si>
+  <si>
+    <t>Wojciech</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -403,109 +412,109 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Lena Sadowska</t>
-  </si>
-  <si>
-    <t>25.01.1998</t>
-  </si>
-  <si>
-    <t>3 502,00 zł</t>
-  </si>
-  <si>
-    <t>Maja Zawadzka</t>
-  </si>
-  <si>
-    <t>10.07.1976</t>
-  </si>
-  <si>
-    <t>11 798,00 zł</t>
-  </si>
-  <si>
-    <t>Maja Kaźmierczak</t>
-  </si>
-  <si>
-    <t>24.03.1981</t>
-  </si>
-  <si>
-    <t>10 582,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Wojciechowski</t>
-  </si>
-  <si>
-    <t>28.02.1981</t>
-  </si>
-  <si>
-    <t>7 448,00 zł</t>
-  </si>
-  <si>
-    <t>25.07.1991</t>
-  </si>
-  <si>
-    <t>13 215,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Urbaniak</t>
-  </si>
-  <si>
-    <t>23.07.1987</t>
-  </si>
-  <si>
-    <t>6 451,00 zł</t>
-  </si>
-  <si>
-    <t>Maja Maciejewska</t>
-  </si>
-  <si>
-    <t>07.04.1992</t>
-  </si>
-  <si>
-    <t>7 255,00 zł</t>
-  </si>
-  <si>
-    <t>Wojciech Mazur</t>
-  </si>
-  <si>
-    <t>19.06.1998</t>
-  </si>
-  <si>
-    <t>11 326,00 zł</t>
-  </si>
-  <si>
-    <t>Hanna Kaźmierczak</t>
-  </si>
-  <si>
-    <t>12.03.1982</t>
-  </si>
-  <si>
-    <t>13 182,00 zł</t>
-  </si>
-  <si>
-    <t>Mikołaj Kozłowski</t>
-  </si>
-  <si>
-    <t>04.03.1986</t>
-  </si>
-  <si>
-    <t>5 117,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Górska</t>
-  </si>
-  <si>
-    <t>28.06.1984</t>
-  </si>
-  <si>
-    <t>12 331,00 zł</t>
-  </si>
-  <si>
-    <t>Szymon Wojciechowski</t>
-  </si>
-  <si>
-    <t>09.04.1987</t>
-  </si>
-  <si>
-    <t>6 062,00 zł</t>
+    <t>Aleksander Grabowski</t>
+  </si>
+  <si>
+    <t>24.03.1998</t>
+  </si>
+  <si>
+    <t>3 932,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Jankowski</t>
+  </si>
+  <si>
+    <t>26.11.1977</t>
+  </si>
+  <si>
+    <t>6 328,00 zł</t>
+  </si>
+  <si>
+    <t>Filip Szymański</t>
+  </si>
+  <si>
+    <t>28.03.1988</t>
+  </si>
+  <si>
+    <t>14 828,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Sikorska</t>
+  </si>
+  <si>
+    <t>08.01.1990</t>
+  </si>
+  <si>
+    <t>4 060,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Czarnecka</t>
+  </si>
+  <si>
+    <t>05.10.1990</t>
+  </si>
+  <si>
+    <t>3 977,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kamiński</t>
+  </si>
+  <si>
+    <t>01.11.1988</t>
+  </si>
+  <si>
+    <t>11 955,00 zł</t>
+  </si>
+  <si>
+    <t>Amelia Wójcik</t>
+  </si>
+  <si>
+    <t>22.02.1980</t>
+  </si>
+  <si>
+    <t>11 427,00 zł</t>
+  </si>
+  <si>
+    <t>Aleksander Kowalczyk</t>
+  </si>
+  <si>
+    <t>08.04.1985</t>
+  </si>
+  <si>
+    <t>6 826,00 zł</t>
+  </si>
+  <si>
+    <t>Mikołaj Zieliński</t>
+  </si>
+  <si>
+    <t>25.05.1987</t>
+  </si>
+  <si>
+    <t>5 837,00 zł</t>
+  </si>
+  <si>
+    <t>16.08.2000</t>
+  </si>
+  <si>
+    <t>10 109,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Kamiński</t>
+  </si>
+  <si>
+    <t>18.01.2003</t>
+  </si>
+  <si>
+    <t>11 031,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Szymański</t>
+  </si>
+  <si>
+    <t>15.11.1999</t>
+  </si>
+  <si>
+    <t>12 665,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -577,283 +586,298 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>999,00 zł</t>
-  </si>
-  <si>
-    <t>1 139,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Styczeń</t>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>1 124,00 zł</t>
+  </si>
+  <si>
+    <t>1 304,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>1 172,00 zł</t>
+  </si>
+  <si>
+    <t>1 371,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>1 316,00 zł</t>
+  </si>
+  <si>
+    <t>1 684,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>503,00 zł</t>
+  </si>
+  <si>
+    <t>634,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>1 349,00 zł</t>
+  </si>
+  <si>
+    <t>1 619,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
   </si>
   <si>
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>861,00 zł</t>
-  </si>
-  <si>
-    <t>973,00 zł</t>
+    <t>1 434,00 zł</t>
+  </si>
+  <si>
+    <t>1 635,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>636,00 zł</t>
+  </si>
+  <si>
+    <t>712,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>946,00 zł</t>
+  </si>
+  <si>
+    <t>1 287,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>1 039,00 zł</t>
+  </si>
+  <si>
+    <t>1 340,00 zł</t>
+  </si>
+  <si>
+    <t>801,00 zł</t>
+  </si>
+  <si>
+    <t>977,00 zł</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>1 286,00 zł</t>
+  </si>
+  <si>
+    <t>1 710,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>1 160,00 zł</t>
+  </si>
+  <si>
+    <t>1 589,00 zł</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>506,00 zł</t>
+  </si>
+  <si>
+    <t>582,00 zł</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>1 013,00 zł</t>
+  </si>
+  <si>
+    <t>1 195,00 zł</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>1 477,00 zł</t>
+  </si>
+  <si>
+    <t>1 876,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>1 254,00 zł</t>
+  </si>
+  <si>
+    <t>1 455,00 zł</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>1 432,00 zł</t>
+  </si>
+  <si>
+    <t>1 675,00 zł</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>1 037,00 zł</t>
+  </si>
+  <si>
+    <t>1 441,00 zł</t>
   </si>
   <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>891,00 zł</t>
-  </si>
-  <si>
-    <t>1 042,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>1 159,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>1 400,00 zł</t>
-  </si>
-  <si>
-    <t>1 834,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>1 429,00 zł</t>
-  </si>
-  <si>
-    <t>1 672,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>1 197,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>1 152,00 zł</t>
+  </si>
+  <si>
+    <t>1 590,00 zł</t>
   </si>
   <si>
     <t>małopolskie</t>
   </si>
   <si>
-    <t>991,00 zł</t>
-  </si>
-  <si>
-    <t>1 219,00 zł</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>1 421,00 zł</t>
-  </si>
-  <si>
-    <t>1 918,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>1 096,00 zł</t>
-  </si>
-  <si>
-    <t>1 260,00 zł</t>
-  </si>
-  <si>
-    <t>1 281,00 zł</t>
-  </si>
-  <si>
-    <t>1 678,00 zł</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>1 230,00 zł</t>
-  </si>
-  <si>
-    <t>1 378,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>1 487,00 zł</t>
-  </si>
-  <si>
-    <t>1 948,00 zł</t>
-  </si>
-  <si>
-    <t>1 477,00 zł</t>
-  </si>
-  <si>
-    <t>2 053,00 zł</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>1 114,00 zł</t>
   </si>
   <si>
     <t>1 259,00 zł</t>
   </si>
   <si>
-    <t>1 674,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>1 353,00 zł</t>
-  </si>
-  <si>
-    <t>1 705,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>801,00 zł</t>
-  </si>
-  <si>
-    <t>1 009,00 zł</t>
-  </si>
-  <si>
-    <t>1 055,00 zł</t>
-  </si>
-  <si>
-    <t>1 329,00 zł</t>
-  </si>
-  <si>
-    <t>1 411,00 zł</t>
-  </si>
-  <si>
-    <t>1 609,00 zł</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>1 023,00 zł</t>
-  </si>
-  <si>
-    <t>1 381,00 zł</t>
-  </si>
-  <si>
-    <t>1 092,00 zł</t>
-  </si>
-  <si>
-    <t>1 343,00 zł</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>1 064,00 zł</t>
-  </si>
-  <si>
-    <t>1 394,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>1 306,00 zł</t>
-  </si>
-  <si>
-    <t>1 541,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>688,00 zł</t>
-  </si>
-  <si>
-    <t>846,00 zł</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>638,00 zł</t>
-  </si>
-  <si>
-    <t>772,00 zł</t>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>1 406,00 zł</t>
+  </si>
+  <si>
+    <t>1 701,00 zł</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>603,00 zł</t>
+  </si>
+  <si>
+    <t>790,00 zł</t>
+  </si>
+  <si>
+    <t>1 362,00 zł</t>
+  </si>
+  <si>
+    <t>1 839,00 zł</t>
+  </si>
+  <si>
+    <t>1 019,00 zł</t>
+  </si>
+  <si>
+    <t>1 131,00 zł</t>
+  </si>
+  <si>
+    <t>1 488,00 zł</t>
+  </si>
+  <si>
+    <t>1 949,00 zł</t>
+  </si>
+  <si>
+    <t>1 458,00 zł</t>
+  </si>
+  <si>
+    <t>1 706,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1410,19 +1434,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>6</v>
       </c>
-      <c r="C17" s="3">
-        <v>3</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="F17" s="3">
         <v>4</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1431,19 +1455,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
       </c>
       <c r="D18" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E18" s="3">
         <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1452,13 +1476,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" s="3">
         <v>4</v>
@@ -1473,19 +1497,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="3">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
         <v>3</v>
       </c>
-      <c r="E20" s="3">
-        <v>4</v>
-      </c>
       <c r="F20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1494,19 +1518,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3">
         <v>6</v>
       </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
       <c r="E21" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1521,13 +1545,13 @@
         <v>6</v>
       </c>
       <c r="D22" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E22" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1536,7 +1560,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
@@ -1545,10 +1569,10 @@
         <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1557,19 +1581,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D24" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E24" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F24" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1578,19 +1602,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" s="3">
         <v>6</v>
       </c>
       <c r="D25" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E25" s="3">
         <v>5</v>
       </c>
       <c r="F25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1599,19 +1623,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
         <v>5</v>
-      </c>
-      <c r="C26" s="3">
-        <v>4</v>
       </c>
       <c r="D26" s="3">
         <v>6</v>
       </c>
       <c r="E26" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1620,19 +1644,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3">
         <v>3</v>
       </c>
       <c r="D27" s="3">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
         <v>3</v>
       </c>
-      <c r="E27" s="3">
-        <v>2</v>
-      </c>
       <c r="F27" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1644,7 +1668,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D28" s="3">
         <v>2</v>
@@ -1653,7 +1677,7 @@
         <v>5</v>
       </c>
       <c r="F28" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1775,7 +1799,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1790,7 +1814,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1805,7 +1829,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1820,7 +1844,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1835,7 +1859,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1967,7 +1991,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -1979,7 +2003,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -1991,7 +2015,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2003,7 +2027,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2015,7 +2039,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2063,7 +2087,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2075,7 +2099,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2087,7 +2111,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2099,7 +2123,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2111,7 +2135,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2159,7 +2183,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2171,7 +2195,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2183,7 +2207,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2195,7 +2219,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2207,7 +2231,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2241,10 +2265,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A18" sqref="A18:L18"/>
+      <selection activeCell="A20" sqref="A20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2350,25 +2374,25 @@
         <v>107</v>
       </c>
       <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3">
+        <v>6</v>
+      </c>
+      <c r="J12" s="3">
         <v>2</v>
-      </c>
-      <c r="F12" s="3">
-        <v>6</v>
-      </c>
-      <c r="G12" s="3">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2</v>
-      </c>
-      <c r="I12" s="3">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3">
-        <v>6</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2382,25 +2406,25 @@
         <v>109</v>
       </c>
       <c r="D13" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
       </c>
       <c r="F13" s="3">
+        <v>6</v>
+      </c>
+      <c r="G13" s="3">
         <v>3</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
+        <v>4</v>
+      </c>
+      <c r="I13" s="3">
+        <v>6</v>
+      </c>
+      <c r="J13" s="3">
         <v>2</v>
-      </c>
-      <c r="H13" s="3">
-        <v>6</v>
-      </c>
-      <c r="I13" s="3">
-        <v>3</v>
-      </c>
-      <c r="J13" s="3">
-        <v>5</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2414,22 +2438,22 @@
         <v>111</v>
       </c>
       <c r="D14" s="3">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3">
         <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>4</v>
       </c>
       <c r="G14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14" s="3">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
         <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>5</v>
       </c>
       <c r="J14" s="3">
         <v>6</v>
@@ -2446,25 +2470,25 @@
         <v>113</v>
       </c>
       <c r="D15" s="3">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>6</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3">
         <v>2</v>
       </c>
-      <c r="E15" s="3">
-        <v>2</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>5</v>
-      </c>
-      <c r="I15" s="3">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
-        <v>6</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2478,22 +2502,22 @@
         <v>115</v>
       </c>
       <c r="D16" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E16" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F16" s="3">
         <v>4</v>
       </c>
       <c r="G16" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H16" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J16" s="3">
         <v>5</v>
@@ -2502,42 +2526,106 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="C17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>6</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="D20:L20"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2565,7 +2653,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2575,199 +2663,199 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2785,10 +2873,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A44" sqref="A44:B48"/>
+      <selection activeCell="A45" sqref="A45:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2804,7 +2892,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2814,75 +2902,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2890,22 +2978,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2913,22 +3001,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2936,22 +3024,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2959,22 +3047,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2982,22 +3070,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3005,22 +3093,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3028,22 +3116,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3051,22 +3139,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3074,22 +3162,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3097,22 +3185,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3120,22 +3208,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3143,22 +3231,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3166,22 +3254,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3189,22 +3277,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3212,22 +3300,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>190</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3235,22 +3323,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3258,22 +3346,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3281,22 +3369,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>191</v>
+        <v>260</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>220</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3304,22 +3392,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3327,22 +3415,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3350,22 +3438,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3373,22 +3461,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>191</v>
+        <v>260</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>268</v>
+        <v>192</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3396,22 +3484,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>269</v>
+        <v>195</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>272</v>
+        <v>204</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3419,22 +3507,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>195</v>
+        <v>264</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3442,67 +3530,90 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="13" t="s">
-        <v>162</v>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3">
+        <v>26</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>278</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>166</v>
+      <c r="A44" s="13" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>166</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>290</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_046.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_046.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
   <si>
     <t>ZESTAW ZADAŃ NR 46 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 46 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Temperówka</t>
   </si>
   <si>
-    <t>2,30</t>
-  </si>
-  <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>6,40</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>1,20</t>
-  </si>
-  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>3,50</t>
-  </si>
-  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>5,50</t>
-  </si>
-  <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>1,80</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>8,22</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>2,29</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>6,62</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>22,21</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>10,13</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>22,02</t>
-  </si>
-  <si>
-    <t>12,51</t>
-  </si>
-  <si>
-    <t>25,32</t>
-  </si>
-  <si>
-    <t>24,08</t>
-  </si>
-  <si>
-    <t>3,06</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>16,32</t>
-  </si>
-  <si>
-    <t>29,79</t>
-  </si>
-  <si>
-    <t>15,39</t>
-  </si>
-  <si>
-    <t>17,53</t>
-  </si>
-  <si>
-    <t>13,81</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -418,105 +340,69 @@
     <t>24.03.1998</t>
   </si>
   <si>
-    <t>3 932,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Jankowski</t>
   </si>
   <si>
     <t>26.11.1977</t>
   </si>
   <si>
-    <t>6 328,00 zł</t>
-  </si>
-  <si>
     <t>Filip Szymański</t>
   </si>
   <si>
     <t>28.03.1988</t>
   </si>
   <si>
-    <t>14 828,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Sikorska</t>
   </si>
   <si>
     <t>08.01.1990</t>
   </si>
   <si>
-    <t>4 060,00 zł</t>
-  </si>
-  <si>
     <t>Maja Czarnecka</t>
   </si>
   <si>
     <t>05.10.1990</t>
   </si>
   <si>
-    <t>3 977,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kamiński</t>
   </si>
   <si>
     <t>01.11.1988</t>
   </si>
   <si>
-    <t>11 955,00 zł</t>
-  </si>
-  <si>
     <t>Amelia Wójcik</t>
   </si>
   <si>
     <t>22.02.1980</t>
   </si>
   <si>
-    <t>11 427,00 zł</t>
-  </si>
-  <si>
     <t>Aleksander Kowalczyk</t>
   </si>
   <si>
     <t>08.04.1985</t>
   </si>
   <si>
-    <t>6 826,00 zł</t>
-  </si>
-  <si>
     <t>Mikołaj Zieliński</t>
   </si>
   <si>
     <t>25.05.1987</t>
   </si>
   <si>
-    <t>5 837,00 zł</t>
-  </si>
-  <si>
     <t>16.08.2000</t>
   </si>
   <si>
-    <t>10 109,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Kamiński</t>
   </si>
   <si>
     <t>18.01.2003</t>
   </si>
   <si>
-    <t>11 031,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Szymański</t>
   </si>
   <si>
     <t>15.11.1999</t>
   </si>
   <si>
-    <t>12 665,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -529,9 +415,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -592,12 +475,6 @@
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>1 124,00 zł</t>
-  </si>
-  <si>
-    <t>1 304,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
@@ -610,12 +487,6 @@
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>1 172,00 zł</t>
-  </si>
-  <si>
-    <t>1 371,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
@@ -628,12 +499,6 @@
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>1 316,00 zł</t>
-  </si>
-  <si>
-    <t>1 684,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
@@ -643,12 +508,6 @@
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>503,00 zł</t>
-  </si>
-  <si>
-    <t>634,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
@@ -658,12 +517,6 @@
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>1 349,00 zł</t>
-  </si>
-  <si>
-    <t>1 619,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
@@ -673,12 +526,6 @@
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>1 434,00 zł</t>
-  </si>
-  <si>
-    <t>1 635,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
@@ -691,114 +538,48 @@
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>636,00 zł</t>
-  </si>
-  <si>
-    <t>712,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
     <t>maj</t>
   </si>
   <si>
-    <t>946,00 zł</t>
-  </si>
-  <si>
-    <t>1 287,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>1 039,00 zł</t>
-  </si>
-  <si>
-    <t>1 340,00 zł</t>
-  </si>
-  <si>
-    <t>801,00 zł</t>
-  </si>
-  <si>
-    <t>977,00 zł</t>
-  </si>
-  <si>
     <t>łódzkie</t>
   </si>
   <si>
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>1 286,00 zł</t>
-  </si>
-  <si>
-    <t>1 710,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
-    <t>1 160,00 zł</t>
-  </si>
-  <si>
-    <t>1 589,00 zł</t>
-  </si>
-  <si>
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>506,00 zł</t>
-  </si>
-  <si>
-    <t>582,00 zł</t>
-  </si>
-  <si>
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>1 013,00 zł</t>
-  </si>
-  <si>
-    <t>1 195,00 zł</t>
-  </si>
-  <si>
     <t>świętokrzyskie</t>
   </si>
   <si>
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>1 477,00 zł</t>
-  </si>
-  <si>
-    <t>1 876,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
     <t>podkarpackie</t>
   </si>
   <si>
-    <t>1 254,00 zł</t>
-  </si>
-  <si>
-    <t>1 455,00 zł</t>
-  </si>
-  <si>
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>1 432,00 zł</t>
-  </si>
-  <si>
-    <t>1 675,00 zł</t>
-  </si>
-  <si>
     <t>lubuskie</t>
   </si>
   <si>
@@ -808,76 +589,22 @@
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>1 037,00 zł</t>
-  </si>
-  <si>
-    <t>1 441,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
     <t>kujawsko-pomorskie</t>
   </si>
   <si>
-    <t>1 152,00 zł</t>
-  </si>
-  <si>
-    <t>1 590,00 zł</t>
-  </si>
-  <si>
     <t>małopolskie</t>
   </si>
   <si>
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>1 114,00 zł</t>
-  </si>
-  <si>
-    <t>1 259,00 zł</t>
-  </si>
-  <si>
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>1 406,00 zł</t>
-  </si>
-  <si>
-    <t>1 701,00 zł</t>
-  </si>
-  <si>
     <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>603,00 zł</t>
-  </si>
-  <si>
-    <t>790,00 zł</t>
-  </si>
-  <si>
-    <t>1 362,00 zł</t>
-  </si>
-  <si>
-    <t>1 839,00 zł</t>
-  </si>
-  <si>
-    <t>1 019,00 zł</t>
-  </si>
-  <si>
-    <t>1 131,00 zł</t>
-  </si>
-  <si>
-    <t>1 488,00 zł</t>
-  </si>
-  <si>
-    <t>1 949,00 zł</t>
-  </si>
-  <si>
-    <t>1 458,00 zł</t>
-  </si>
-  <si>
-    <t>1 706,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -899,7 +626,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -956,14 +685,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -974,8 +703,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1006,30 +735,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1332,7 +1062,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1407,25 +1137,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1448,7 +1178,7 @@
       <c r="F17" s="3">
         <v>4</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1469,7 +1199,7 @@
       <c r="F18" s="3">
         <v>5</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1490,7 +1220,7 @@
       <c r="F19" s="3">
         <v>5</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1511,7 +1241,7 @@
       <c r="F20" s="3">
         <v>2</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1532,7 +1262,7 @@
       <c r="F21" s="3">
         <v>3</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1553,7 +1283,7 @@
       <c r="F22" s="3">
         <v>6</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1574,7 +1304,7 @@
       <c r="F23" s="3">
         <v>6</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1595,7 +1325,7 @@
       <c r="F24" s="3">
         <v>6</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1616,7 +1346,7 @@
       <c r="F25" s="3">
         <v>4</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1637,7 +1367,7 @@
       <c r="F26" s="3">
         <v>2</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1658,7 +1388,7 @@
       <c r="F27" s="3">
         <v>5</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1679,27 +1409,17 @@
       <c r="F28" s="3">
         <v>4</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1733,7 +1453,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1753,7 +1473,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1763,29 +1483,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1793,99 +1513,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2.3</v>
       </c>
       <c r="D13" s="3">
         <v>9</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>6.4</v>
       </c>
       <c r="D14" s="3">
         <v>4</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1.2</v>
       </c>
       <c r="D15" s="3">
         <v>8</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3.5</v>
       </c>
       <c r="D16" s="3">
         <v>10</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5.5</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1.8</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1918,7 +1638,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1943,113 +1663,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>8.22</v>
       </c>
       <c r="C15" s="3">
         <v>36</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>2.29</v>
       </c>
       <c r="C16" s="3">
         <v>27</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>6.62</v>
       </c>
       <c r="C17" s="3">
         <v>31</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>22.21</v>
       </c>
       <c r="C18" s="3">
         <v>35</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>10.13</v>
       </c>
       <c r="C19" s="3">
         <v>31</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2058,94 +1778,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>22.02</v>
       </c>
       <c r="C24" s="3">
         <v>50</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>12.51</v>
       </c>
       <c r="C25" s="3">
         <v>18</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>25.32</v>
       </c>
       <c r="C26" s="3">
         <v>12</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>24.079999999999998</v>
       </c>
       <c r="C27" s="3">
         <v>17</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>3.06</v>
       </c>
       <c r="C28" s="3">
         <v>32</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2154,98 +1874,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>16.32</v>
       </c>
       <c r="C33" s="3">
         <v>21</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>29.79</v>
       </c>
       <c r="C34" s="3">
         <v>39</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>15.39</v>
       </c>
       <c r="C35" s="3">
         <v>39</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>17.53</v>
       </c>
       <c r="C36" s="3">
         <v>48</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>13.81</v>
       </c>
       <c r="C37" s="3">
         <v>26</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2268,7 +1988,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A20" sqref="A20:L20"/>
+      <selection activeCell="A11" sqref="A11:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2288,90 +2008,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
@@ -2394,16 +2114,16 @@
       <c r="J12" s="3">
         <v>2</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
@@ -2426,16 +2146,16 @@
       <c r="J13" s="3">
         <v>2</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>6</v>
@@ -2458,16 +2178,16 @@
       <c r="J14" s="3">
         <v>6</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>4</v>
@@ -2490,16 +2210,16 @@
       <c r="J15" s="3">
         <v>5</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D16" s="3">
         <v>6</v>
@@ -2522,16 +2242,16 @@
       <c r="J16" s="3">
         <v>5</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D17" s="3">
         <v>5</v>
@@ -2554,16 +2274,16 @@
       <c r="J17" s="3">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
@@ -2586,40 +2306,40 @@
       <c r="J18" s="3">
         <v>2</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="A19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="A20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2652,211 +2372,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>121</v>
+      <c r="A1" s="15" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>129</v>
+      <c r="A10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>132</v>
+        <v>105</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3932</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>135</v>
+        <v>107</v>
+      </c>
+      <c r="C12" s="7">
+        <v>6328</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>138</v>
+        <v>109</v>
+      </c>
+      <c r="C13" s="7">
+        <v>14828</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>141</v>
+        <v>111</v>
+      </c>
+      <c r="C14" s="7">
+        <v>4060</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>144</v>
+        <v>113</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3977</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>147</v>
+        <v>115</v>
+      </c>
+      <c r="C16" s="7">
+        <v>11955</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>150</v>
+        <v>117</v>
+      </c>
+      <c r="C17" s="7">
+        <v>11427</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>153</v>
+        <v>119</v>
+      </c>
+      <c r="C18" s="7">
+        <v>6826</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>156</v>
+        <v>121</v>
+      </c>
+      <c r="C19" s="7">
+        <v>5837</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>158</v>
+        <v>122</v>
+      </c>
+      <c r="C20" s="7">
+        <v>10109</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>161</v>
+        <v>124</v>
+      </c>
+      <c r="C21" s="7">
+        <v>11031</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>164</v>
+        <v>126</v>
+      </c>
+      <c r="C22" s="7">
+        <v>12665</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="13" t="s">
-        <v>165</v>
+      <c r="A25" s="17" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>169</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>169</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B27" s="6"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>169</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B28" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2891,86 +2605,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>170</v>
+      <c r="A1" s="15" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>187</v>
+      <c r="A15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2978,22 +2692,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>191</v>
+        <v>150</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1124</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1304</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3001,22 +2715,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>197</v>
+        <v>154</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1172</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1371</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3024,22 +2738,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1316</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1684</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3047,22 +2761,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>208</v>
+        <v>161</v>
+      </c>
+      <c r="D19" s="7">
+        <v>503</v>
+      </c>
+      <c r="E19" s="7">
+        <v>634</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3070,22 +2784,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>213</v>
+        <v>164</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1349</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1619</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3093,22 +2807,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>218</v>
+        <v>167</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1434</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1635</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3116,22 +2830,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>224</v>
+        <v>171</v>
+      </c>
+      <c r="D22" s="7">
+        <v>636</v>
+      </c>
+      <c r="E22" s="7">
+        <v>712</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3139,22 +2853,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>228</v>
+        <v>171</v>
+      </c>
+      <c r="D23" s="7">
+        <v>946</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1287</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3162,22 +2876,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>232</v>
+        <v>175</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1039</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1340</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3185,22 +2899,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>234</v>
+        <v>161</v>
+      </c>
+      <c r="D25" s="7">
+        <v>801</v>
+      </c>
+      <c r="E25" s="7">
+        <v>977</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>235</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3208,22 +2922,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>238</v>
+        <v>177</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1286</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1710</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3231,22 +2945,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>241</v>
+        <v>177</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1160</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1589</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3254,22 +2968,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>244</v>
+        <v>179</v>
+      </c>
+      <c r="D28" s="7">
+        <v>506</v>
+      </c>
+      <c r="E28" s="7">
+        <v>582</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3277,22 +2991,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>247</v>
+        <v>180</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1013</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1195</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>248</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3300,22 +3014,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>251</v>
+        <v>182</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1477</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1876</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>252</v>
+        <v>183</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>253</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3323,22 +3037,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>255</v>
+        <v>182</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1254</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1455</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3346,22 +3060,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>258</v>
+        <v>185</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1432</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1675</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>259</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3369,22 +3083,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>260</v>
+        <v>187</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>263</v>
+        <v>188</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1037</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1441</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>264</v>
+        <v>189</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>265</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3392,22 +3106,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>267</v>
+        <v>179</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1152</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1590</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>264</v>
+        <v>189</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>268</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3415,22 +3129,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>271</v>
+        <v>192</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1114</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1259</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>265</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3438,22 +3152,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>274</v>
+        <v>193</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1406</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1701</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>253</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3461,22 +3175,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>260</v>
+        <v>187</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>277</v>
+        <v>194</v>
+      </c>
+      <c r="D37" s="7">
+        <v>603</v>
+      </c>
+      <c r="E37" s="7">
+        <v>790</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3484,22 +3198,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>279</v>
+        <v>154</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1362</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1839</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3507,22 +3221,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>281</v>
+        <v>158</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1019</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1131</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>264</v>
+        <v>189</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>268</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3530,22 +3244,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>260</v>
+        <v>187</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>283</v>
+        <v>185</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1488</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1949</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>268</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3553,68 +3267,58 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>285</v>
+        <v>194</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1458</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1706</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>259</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="13" t="s">
-        <v>165</v>
+      <c r="A44" s="17" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>286</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>169</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>287</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>169</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>288</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>169</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>289</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>169</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>290</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>169</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_046.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_046.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t>ZESTAW ZADAŃ NR 46 - CZĘŚĆ 1</t>
   </si>
@@ -61,361 +62,385 @@
     <t>Przedmiot</t>
   </si>
   <si>
+    <t>Amelia Zawadzka</t>
+  </si>
+  <si>
+    <t>Mikołaj Kamiński</t>
+  </si>
+  <si>
+    <t>Kacper Wójcik</t>
+  </si>
+  <si>
+    <t>Anna Bednarska</t>
+  </si>
+  <si>
+    <t>Jakub Nowak</t>
+  </si>
+  <si>
+    <t>ŚREDNIA</t>
+  </si>
+  <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Przyroda</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>Plastyka</t>
+  </si>
+  <si>
+    <t>Muzyka</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne</t>
+  </si>
+  <si>
+    <t>Technika</t>
+  </si>
+  <si>
+    <t>Religia</t>
+  </si>
+  <si>
+    <t>ŚREDNIA UCZNIA:</t>
+  </si>
+  <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 46 - CZĘŚĆ 2: ZAKUPY</t>
+  </si>
+  <si>
+    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
+  </si>
+  <si>
+    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
+  </si>
+  <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Cena (zł)</t>
+  </si>
+  <si>
+    <t>Ilość sztuk</t>
+  </si>
+  <si>
+    <t>Razem (zł)</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>SUMA:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 46 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
+  </si>
+  <si>
+    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
+  </si>
+  <si>
+    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
+  </si>
+  <si>
+    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
+  </si>
+  <si>
+    <t>Styczeń:</t>
+  </si>
+  <si>
+    <t>Zeszyt</t>
+  </si>
+  <si>
+    <t>Ołówek</t>
+  </si>
+  <si>
+    <t>Długopis</t>
+  </si>
+  <si>
+    <t>Linijka</t>
+  </si>
+  <si>
+    <t>Gumka</t>
+  </si>
+  <si>
+    <t>Razem Styczeń:</t>
+  </si>
+  <si>
+    <t>Luty:</t>
+  </si>
+  <si>
+    <t>Razem Luty:</t>
+  </si>
+  <si>
+    <t>Marzec:</t>
+  </si>
+  <si>
+    <t>Razem Marzec:</t>
+  </si>
+  <si>
+    <t>SUMA z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 4: ŚREDNIE KLASY</t>
+  </si>
+  <si>
+    <t>Instrukcja:</t>
+  </si>
+  <si>
+    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
+  </si>
+  <si>
+    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
+  </si>
+  <si>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+  </si>
+  <si>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+  </si>
+  <si>
+    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
+  </si>
+  <si>
+    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Chemia</t>
+  </si>
+  <si>
+    <t>Średnia ucznia</t>
+  </si>
+  <si>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Król</t>
+  </si>
+  <si>
+    <t>Oliwia</t>
+  </si>
+  <si>
+    <t>Jaworska</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Malinowska</t>
+  </si>
+  <si>
+    <t>Wojciech</t>
+  </si>
+  <si>
+    <t>Kaczmarek</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Mazur</t>
+  </si>
+  <si>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Szymański</t>
+  </si>
+  <si>
+    <t>Średnia przedmiotu:</t>
+  </si>
+  <si>
+    <t>Średnia klasy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 5 - DANE OSOBOWE</t>
+  </si>
+  <si>
+    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
+  </si>
+  <si>
+    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
+  </si>
+  <si>
+    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
+  </si>
+  <si>
+    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
+  </si>
+  <si>
+    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko</t>
+  </si>
+  <si>
+    <t>Data urodzenia</t>
+  </si>
+  <si>
+    <t>Zarobki (zł)</t>
+  </si>
+  <si>
     <t>Filip Kamiński</t>
   </si>
   <si>
-    <t>Anna Piekarska</t>
-  </si>
-  <si>
-    <t>Antoni Kozłowski</t>
-  </si>
-  <si>
-    <t>Natalia Kubiak</t>
-  </si>
-  <si>
-    <t>Jakub Lewandowski</t>
-  </si>
-  <si>
-    <t>ŚREDNIA</t>
-  </si>
-  <si>
-    <t>Język polski</t>
-  </si>
-  <si>
-    <t>Język angielski</t>
-  </si>
-  <si>
-    <t>Matematyka</t>
-  </si>
-  <si>
-    <t>Historia</t>
-  </si>
-  <si>
-    <t>Przyroda</t>
-  </si>
-  <si>
-    <t>Geografia</t>
-  </si>
-  <si>
-    <t>Informatyka</t>
-  </si>
-  <si>
-    <t>Plastyka</t>
-  </si>
-  <si>
-    <t>Muzyka</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne</t>
-  </si>
-  <si>
-    <t>Technika</t>
-  </si>
-  <si>
-    <t>Religia</t>
-  </si>
-  <si>
-    <t>ŚREDNIA UCZNIA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 46 - CZĘŚĆ 2: ZAKUPY</t>
-  </si>
-  <si>
-    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
-  </si>
-  <si>
-    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
-  </si>
-  <si>
-    <t>L.p.</t>
-  </si>
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
-    <t>Cena (zł)</t>
-  </si>
-  <si>
-    <t>Ilość sztuk</t>
-  </si>
-  <si>
-    <t>Razem (zł)</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>SUMA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 46 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
-  </si>
-  <si>
-    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
-  </si>
-  <si>
-    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
-  </si>
-  <si>
-    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
-  </si>
-  <si>
-    <t>Styczeń:</t>
-  </si>
-  <si>
-    <t>Zeszyt</t>
-  </si>
-  <si>
-    <t>Ołówek</t>
-  </si>
-  <si>
-    <t>Długopis</t>
-  </si>
-  <si>
-    <t>Linijka</t>
-  </si>
-  <si>
-    <t>Gumka</t>
-  </si>
-  <si>
-    <t>Razem Styczeń:</t>
-  </si>
-  <si>
-    <t>Luty:</t>
-  </si>
-  <si>
-    <t>Razem Luty:</t>
-  </si>
-  <si>
-    <t>Marzec:</t>
-  </si>
-  <si>
-    <t>Razem Marzec:</t>
-  </si>
-  <si>
-    <t>SUMA z 3 miesięcy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 4: ŚREDNIE KLASY</t>
-  </si>
-  <si>
-    <t>Instrukcja:</t>
-  </si>
-  <si>
-    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
-  </si>
-  <si>
-    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
-  </si>
-  <si>
-    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
-  </si>
-  <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
-  </si>
-  <si>
-    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
-  </si>
-  <si>
-    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Imię</t>
-  </si>
-  <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
-    <t>Biologia</t>
-  </si>
-  <si>
-    <t>Chemia</t>
-  </si>
-  <si>
-    <t>Średnia ucznia</t>
-  </si>
-  <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Zuzanna</t>
-  </si>
-  <si>
-    <t>Zawadzka</t>
-  </si>
-  <si>
-    <t>Maja</t>
-  </si>
-  <si>
-    <t>Wilk</t>
-  </si>
-  <si>
-    <t>Natalia</t>
-  </si>
-  <si>
-    <t>Wójcik</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
-  </si>
-  <si>
-    <t>Jankowski</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Dąbrowski</t>
-  </si>
-  <si>
-    <t>Aleksander</t>
-  </si>
-  <si>
-    <t>Zieliński</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
-  </si>
-  <si>
-    <t>Średnia przedmiotu:</t>
-  </si>
-  <si>
-    <t>Średnia klasy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 5 - DANE OSOBOWE</t>
-  </si>
-  <si>
-    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
-  </si>
-  <si>
-    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
-  </si>
-  <si>
-    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
-  </si>
-  <si>
-    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
-  </si>
-  <si>
-    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
-  </si>
-  <si>
-    <t>Imię i nazwisko</t>
-  </si>
-  <si>
-    <t>Data urodzenia</t>
-  </si>
-  <si>
-    <t>Zarobki (zł)</t>
+    <t>Wojciech Kamiński</t>
+  </si>
+  <si>
+    <t>Natalia Sikorska</t>
+  </si>
+  <si>
+    <t>Anna Sikorska</t>
+  </si>
+  <si>
+    <t>Lena Czarnecka</t>
+  </si>
+  <si>
+    <t>Aleksander Zieliński</t>
+  </si>
+  <si>
+    <t>Julia Bednarska</t>
+  </si>
+  <si>
+    <t>Jan Krawczyk</t>
+  </si>
+  <si>
+    <t>Amelia Urbaniak</t>
+  </si>
+  <si>
+    <t>Szymon Jankowski</t>
+  </si>
+  <si>
+    <t>Natalia Bednarska</t>
+  </si>
+  <si>
+    <t>Szymon Kozłowski</t>
+  </si>
+  <si>
+    <t>OBLICZENIA:</t>
+  </si>
+  <si>
+    <t>Liczba osób urodzonych w 1998 roku:</t>
+  </si>
+  <si>
+    <t>Największe zarobki:</t>
+  </si>
+  <si>
+    <t>Najmniejsze zarobki:</t>
+  </si>
+  <si>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Amelia Bednarska</t>
+  </si>
+  <si>
+    <t>Antoni Dąbrowski</t>
+  </si>
+  <si>
+    <t>Filip Nowak</t>
+  </si>
+  <si>
+    <t>Kacper Szymański</t>
+  </si>
+  <si>
+    <t>Julia Piekarska</t>
+  </si>
+  <si>
+    <t>Maja Olszewska</t>
+  </si>
+  <si>
+    <t>Adam Wojciechowski</t>
+  </si>
+  <si>
+    <t>Jan Grabowski</t>
+  </si>
+  <si>
+    <t>Mikołaj Kowalczyk</t>
+  </si>
+  <si>
+    <t>Mikołaj Zieliński</t>
+  </si>
+  <si>
+    <t>Emilia Król</t>
   </si>
   <si>
     <t>Aleksander Grabowski</t>
   </si>
   <si>
-    <t>24.03.1998</t>
-  </si>
-  <si>
-    <t>Wojciech Jankowski</t>
-  </si>
-  <si>
-    <t>26.11.1977</t>
-  </si>
-  <si>
-    <t>Filip Szymański</t>
-  </si>
-  <si>
-    <t>28.03.1988</t>
-  </si>
-  <si>
-    <t>Zuzanna Sikorska</t>
-  </si>
-  <si>
-    <t>08.01.1990</t>
-  </si>
-  <si>
-    <t>Maja Czarnecka</t>
-  </si>
-  <si>
-    <t>05.10.1990</t>
-  </si>
-  <si>
-    <t>Jan Kamiński</t>
-  </si>
-  <si>
-    <t>01.11.1988</t>
-  </si>
-  <si>
-    <t>Amelia Wójcik</t>
-  </si>
-  <si>
-    <t>22.02.1980</t>
-  </si>
-  <si>
-    <t>Aleksander Kowalczyk</t>
-  </si>
-  <si>
-    <t>08.04.1985</t>
-  </si>
-  <si>
-    <t>Mikołaj Zieliński</t>
-  </si>
-  <si>
-    <t>25.05.1987</t>
-  </si>
-  <si>
-    <t>16.08.2000</t>
-  </si>
-  <si>
-    <t>Jakub Kamiński</t>
-  </si>
-  <si>
-    <t>18.01.2003</t>
-  </si>
-  <si>
-    <t>Antoni Szymański</t>
-  </si>
-  <si>
-    <t>15.11.1999</t>
-  </si>
-  <si>
-    <t>OBLICZENIA:</t>
-  </si>
-  <si>
-    <t>Liczba osób urodzonych w 1998 roku:</t>
-  </si>
-  <si>
-    <t>Największe zarobki:</t>
-  </si>
-  <si>
-    <t>Najmniejsze zarobki:</t>
-  </si>
-  <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>Antoni Piotrowski</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -469,142 +494,157 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
     <t>marzec</t>
   </si>
   <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
   </si>
   <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
   </si>
   <si>
     <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -676,7 +716,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -699,12 +739,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -735,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -746,13 +780,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1059,7 +1092,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1164,19 +1197,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3">
         <v>5</v>
       </c>
-      <c r="C17" s="3">
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3">
         <v>5</v>
-      </c>
-      <c r="D17" s="3">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3">
-        <v>6</v>
-      </c>
-      <c r="F17" s="3">
-        <v>4</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1197,7 +1230,7 @@
         <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1206,7 +1239,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
@@ -1215,7 +1248,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" s="3">
         <v>5</v>
@@ -1227,19 +1260,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20" s="3">
         <v>3</v>
       </c>
       <c r="F20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1248,7 +1281,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3">
         <v>4</v>
@@ -1257,10 +1290,10 @@
         <v>6</v>
       </c>
       <c r="E21" s="3">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>5</v>
-      </c>
-      <c r="F21" s="3">
-        <v>3</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1269,19 +1302,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="3">
         <v>6</v>
       </c>
       <c r="D22" s="3">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3">
         <v>2</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
-        <v>6</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1290,16 +1323,16 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
       </c>
       <c r="D23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" s="3">
         <v>6</v>
@@ -1317,13 +1350,13 @@
         <v>6</v>
       </c>
       <c r="D24" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E24" s="3">
         <v>6</v>
       </c>
       <c r="F24" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1332,16 +1365,16 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3">
         <v>2</v>
       </c>
-      <c r="C25" s="3">
-        <v>6</v>
-      </c>
-      <c r="D25" s="3">
-        <v>5</v>
-      </c>
       <c r="E25" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F25" s="3">
         <v>4</v>
@@ -1353,13 +1386,13 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
         <v>5</v>
       </c>
       <c r="D26" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
@@ -1374,19 +1407,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F27" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1395,19 +1428,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
         <v>3</v>
       </c>
-      <c r="C28" s="3">
-        <v>6</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="E28" s="3">
         <v>2</v>
       </c>
-      <c r="E28" s="3">
-        <v>5</v>
-      </c>
       <c r="F28" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1420,6 +1453,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1453,7 +1492,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1473,7 +1512,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1483,29 +1522,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1513,99 +1552,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>2.3</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>8.4</v>
       </c>
       <c r="D13" s="3">
-        <v>9</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>6.4</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2.1</v>
       </c>
       <c r="D14" s="3">
         <v>4</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1.2</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>4.7</v>
       </c>
       <c r="D15" s="3">
-        <v>8</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3.5</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.9</v>
       </c>
       <c r="D16" s="3">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>5.5</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>6.8</v>
       </c>
       <c r="D17" s="3">
-        <v>3</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1.8</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>13.1</v>
       </c>
       <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1622,10 +1661,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1638,7 +1677,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1663,27 +1702,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1691,85 +1730,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>8.22</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>21.81</v>
       </c>
       <c r="C15" s="3">
-        <v>36</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>2.29</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>9.85</v>
       </c>
       <c r="C16" s="3">
-        <v>27</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>6.62</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>15.91</v>
       </c>
       <c r="C17" s="3">
-        <v>31</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>22.21</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>18.41</v>
       </c>
       <c r="C18" s="3">
-        <v>35</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>10.13</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>6.51</v>
       </c>
       <c r="C19" s="3">
-        <v>31</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1778,8 +1817,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1787,85 +1826,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>22.02</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>8.24</v>
       </c>
       <c r="C24" s="3">
-        <v>50</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>12.51</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>19.88</v>
       </c>
       <c r="C25" s="3">
-        <v>18</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>25.32</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>24.33</v>
       </c>
       <c r="C26" s="3">
-        <v>12</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>24.079999999999998</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>13.24</v>
       </c>
       <c r="C27" s="3">
-        <v>17</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>3.06</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>15.3</v>
       </c>
       <c r="C28" s="3">
-        <v>32</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1874,8 +1913,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1883,89 +1922,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>16.32</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>28.78</v>
       </c>
       <c r="C33" s="3">
-        <v>21</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>29.79</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>3.39</v>
       </c>
       <c r="C34" s="3">
-        <v>39</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>15.39</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>15.87</v>
       </c>
       <c r="C35" s="3">
-        <v>39</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>17.53</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>8.61</v>
       </c>
       <c r="C36" s="3">
-        <v>48</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>13.81</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>12.87</v>
       </c>
       <c r="C37" s="3">
-        <v>26</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1985,10 +2032,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L20"/>
+      <selection activeCell="A11" sqref="A11:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2008,111 +2055,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E12" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F12" s="3">
+        <v>6</v>
+      </c>
+      <c r="G12" s="3">
+        <v>6</v>
+      </c>
+      <c r="H12" s="3">
         <v>5</v>
-      </c>
-      <c r="G12" s="3">
-        <v>5</v>
-      </c>
-      <c r="H12" s="3">
-        <v>4</v>
       </c>
       <c r="I12" s="3">
         <v>6</v>
       </c>
       <c r="J12" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2120,31 +2167,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3">
         <v>2</v>
       </c>
-      <c r="F13" s="3">
-        <v>6</v>
-      </c>
       <c r="G13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="3">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3">
         <v>4</v>
-      </c>
-      <c r="I13" s="3">
-        <v>6</v>
-      </c>
-      <c r="J13" s="3">
-        <v>2</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2152,31 +2199,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>5</v>
       </c>
       <c r="I14" s="3">
         <v>3</v>
       </c>
       <c r="J14" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2184,31 +2231,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G15" s="3">
         <v>6</v>
       </c>
       <c r="H15" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I15" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J15" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2216,31 +2263,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F16" s="3">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3">
+        <v>3</v>
+      </c>
+      <c r="H16" s="3">
         <v>4</v>
-      </c>
-      <c r="G16" s="3">
-        <v>2</v>
-      </c>
-      <c r="H16" s="3">
-        <v>2</v>
       </c>
       <c r="I16" s="3">
         <v>2</v>
       </c>
       <c r="J16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2248,70 +2295,54 @@
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D17" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
       </c>
       <c r="F17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" s="3">
         <v>3</v>
       </c>
       <c r="H17" s="3">
+        <v>2</v>
+      </c>
+      <c r="I17" s="3">
         <v>4</v>
       </c>
-      <c r="I17" s="3">
-        <v>2</v>
-      </c>
       <c r="J17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
-        <v>6</v>
-      </c>
-      <c r="H18" s="3">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="A18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2322,30 +2353,14 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="D19:L19"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2372,205 +2387,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>95</v>
+      <c r="A1" s="14" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="7">
-        <v>3932</v>
+      <c r="B11" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C11" s="8">
+        <v>11955</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="7">
-        <v>6328</v>
+      <c r="B12" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C12" s="8">
+        <v>14073</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="7">
-        <v>14828</v>
+        <v>107</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1975</v>
+      </c>
+      <c r="C13" s="8">
+        <v>11685</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="7">
-        <v>4060</v>
+        <v>108</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1979</v>
+      </c>
+      <c r="C14" s="8">
+        <v>9048</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="7">
-        <v>3977</v>
+        <v>109</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C15" s="8">
+        <v>5244</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="7">
-        <v>11955</v>
+        <v>110</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C16" s="8">
+        <v>13751</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="7">
-        <v>11427</v>
+        <v>111</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C17" s="8">
+        <v>11849</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="7">
-        <v>6826</v>
+        <v>112</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C18" s="8">
+        <v>4756</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="7">
-        <v>5837</v>
+        <v>113</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1989</v>
+      </c>
+      <c r="C19" s="8">
+        <v>9565</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="7">
-        <v>10109</v>
+        <v>114</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1990</v>
+      </c>
+      <c r="C20" s="8">
+        <v>6992</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="7">
-        <v>11031</v>
+        <v>115</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1987</v>
+      </c>
+      <c r="C21" s="8">
+        <v>7956</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="7">
-        <v>12665</v>
+        <v>116</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C22" s="8">
+        <v>7486</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="17" t="s">
-        <v>127</v>
+      <c r="A25" s="16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="B27" s="7"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="B28" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2587,10 +2602,203 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A45" sqref="A45:B49"/>
+      <selection activeCell="A10" sqref="A10:C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="3">
+        <v>90</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="3">
+        <v>130</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="3">
+        <v>168</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="3">
+        <v>186</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="3">
+        <v>191</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="3">
+        <v>104</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="3">
+        <v>117</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="3">
+        <v>149</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="3">
+        <v>95</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="3">
+        <v>94</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="3">
+        <v>146</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="3">
+        <v>104</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="3">
+        <v>182</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="3">
+        <v>90</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A49" sqref="A49:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2605,86 +2813,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>131</v>
+      <c r="A1" s="14" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2692,22 +2900,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1124</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1304</v>
+        <v>158</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1168</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1553</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2715,22 +2923,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1172</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1371</v>
+        <v>162</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1039</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1423</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2738,22 +2946,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1316</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1684</v>
+        <v>166</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1495</v>
+      </c>
+      <c r="E18" s="8">
+        <v>2003</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2761,22 +2969,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" s="7">
-        <v>503</v>
-      </c>
-      <c r="E19" s="7">
-        <v>634</v>
+        <v>166</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1287</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1686</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2784,22 +2992,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1349</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1619</v>
+        <v>172</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1320</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1808</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2807,22 +3015,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1434</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1635</v>
+        <v>176</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1038</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1287</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2830,22 +3038,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D22" s="7">
-        <v>636</v>
-      </c>
-      <c r="E22" s="7">
-        <v>712</v>
+        <v>176</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1084</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1507</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2853,22 +3061,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D23" s="7">
-        <v>946</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1287</v>
+        <v>181</v>
+      </c>
+      <c r="D23" s="8">
+        <v>781</v>
+      </c>
+      <c r="E23" s="8">
+        <v>890</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2876,22 +3084,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1039</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1340</v>
+        <v>162</v>
+      </c>
+      <c r="D24" s="8">
+        <v>734</v>
+      </c>
+      <c r="E24" s="8">
+        <v>940</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2899,22 +3107,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D25" s="7">
-        <v>801</v>
-      </c>
-      <c r="E25" s="7">
-        <v>977</v>
+        <v>184</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1018</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1395</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2922,22 +3130,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1286</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1710</v>
+        <v>184</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1349</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1511</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2945,22 +3153,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1160</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1589</v>
+        <v>188</v>
+      </c>
+      <c r="D27" s="8">
+        <v>708</v>
+      </c>
+      <c r="E27" s="8">
+        <v>935</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2968,22 +3176,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D28" s="7">
-        <v>506</v>
-      </c>
-      <c r="E28" s="7">
-        <v>582</v>
+        <v>188</v>
+      </c>
+      <c r="D28" s="8">
+        <v>635</v>
+      </c>
+      <c r="E28" s="8">
+        <v>857</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2991,22 +3199,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1013</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1195</v>
+        <v>181</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1116</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1306</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3014,22 +3222,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1477</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1876</v>
+        <v>191</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1368</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1765</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3037,22 +3245,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1254</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1455</v>
+        <v>176</v>
+      </c>
+      <c r="D31" s="8">
+        <v>827</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1017</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3060,22 +3268,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1432</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1675</v>
+        <v>194</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1085</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1421</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3083,22 +3291,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1037</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1441</v>
+        <v>196</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1231</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1539</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3106,22 +3314,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1152</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1590</v>
+        <v>166</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1226</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1496</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3129,22 +3337,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1114</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1259</v>
+        <v>199</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1218</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1413</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3152,22 +3360,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1406</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1701</v>
+        <v>176</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1228</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1449</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3175,22 +3383,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D37" s="7">
-        <v>603</v>
-      </c>
-      <c r="E37" s="7">
-        <v>790</v>
+        <v>191</v>
+      </c>
+      <c r="D37" s="8">
+        <v>889</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1173</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3198,22 +3406,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1362</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1839</v>
+        <v>202</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1202</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1683</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3221,22 +3429,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D39" s="7">
-        <v>1019</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1131</v>
+      <c r="D39" s="8">
+        <v>1374</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1855</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3244,22 +3452,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1488</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1949</v>
+        <v>158</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1099</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1341</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3267,58 +3475,150 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1458</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1706</v>
+        <v>203</v>
+      </c>
+      <c r="D41" s="8">
+        <v>928</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1179</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>186</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3">
+        <v>27</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1471</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1721</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1247</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1746</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="17" t="s">
-        <v>127</v>
+      <c r="A44" s="3">
+        <v>29</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1349</v>
+      </c>
+      <c r="E44" s="8">
+        <v>1875</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>195</v>
-      </c>
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>196</v>
-      </c>
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>197</v>
-      </c>
-      <c r="B47" s="6"/>
+      <c r="A45" s="3">
+        <v>30</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D45" s="8">
+        <v>554</v>
+      </c>
+      <c r="E45" s="8">
+        <v>731</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>198</v>
-      </c>
-      <c r="B48" s="6"/>
+      <c r="A48" s="16" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>199</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>208</v>
+      </c>
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>209</v>
+      </c>
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>210</v>
+      </c>
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>211</v>
+      </c>
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>212</v>
+      </c>
+      <c r="B53" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
